--- a/src/Excel/entregable1/AltaDPF.xlsx
+++ b/src/Excel/entregable1/AltaDPF.xlsx
@@ -3,21 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FA3C4E6-21B8-4BA2-BFE7-6B1D1F0ADA71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{387D7C4A-A808-42C0-971E-453A6FEF9721}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AltaDPF" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>usuario</t>
   </si>
@@ -51,15 +51,9 @@
     <t>123456</t>
   </si>
   <si>
-    <t>4793147</t>
-  </si>
-  <si>
     <t>100005</t>
   </si>
   <si>
-    <t>1000</t>
-  </si>
-  <si>
     <t>R_BASE + 28D</t>
   </si>
   <si>
@@ -72,26 +66,16 @@
     <t>Fecha</t>
   </si>
   <si>
-    <t>FAILED</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>6 mar. 2023, 12:24:28</t>
-  </si>
-  <si>
-    <t>6 mar. 2023, 14:33:31</t>
-  </si>
-  <si>
-    <t>6 mar. 2023, 14:38:20</t>
+    <t>1287257</t>
+  </si>
+  <si>
+    <t>7000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -421,17 +405,17 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.90625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.08984375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.36328125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="12.26953125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="10.7265625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="18.7265625" collapsed="true"/>
+    <col min="1" max="1" width="13.90625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.36328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.26953125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="10.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.7265625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
@@ -454,13 +438,13 @@
         <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -471,25 +455,16 @@
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
         <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/entregable1/AltaDPF.xlsx
+++ b/src/Excel/entregable1/AltaDPF.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{387D7C4A-A808-42C0-971E-453A6FEF9721}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D22879-A287-45F8-9182-26D257146ADF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>usuario</t>
   </si>
@@ -54,9 +54,6 @@
     <t>100005</t>
   </si>
   <si>
-    <t>R_BASE + 28D</t>
-  </si>
-  <si>
     <t>Estado</t>
   </si>
   <si>
@@ -70,12 +67,25 @@
   </si>
   <si>
     <t>7000</t>
+  </si>
+  <si>
+    <t>12M</t>
+  </si>
+  <si>
+    <t>FAILED</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>24 abr. 2023, 17:05:20</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -405,17 +415,17 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.90625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.36328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.26953125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="10.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="18.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.90625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.08984375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.36328125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="12.26953125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="10.7265625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="18.7265625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
@@ -438,13 +448,13 @@
         <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -455,16 +465,25 @@
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s">
-        <v>9</v>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/entregable1/AltaDPF.xlsx
+++ b/src/Excel/entregable1/AltaDPF.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>usuario</t>
   </si>
@@ -79,6 +79,15 @@
   </si>
   <si>
     <t>24 abr. 2023, 17:05:20</t>
+  </si>
+  <si>
+    <t>AAACT231141DHV7H8</t>
+  </si>
+  <si>
+    <t>PASSED</t>
+  </si>
+  <si>
+    <t>24 abr. 2023, 17:35:52</t>
   </si>
 </sst>
 </file>
@@ -477,13 +486,13 @@
         <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/entregable1/AltaDPF.xlsx
+++ b/src/Excel/entregable1/AltaDPF.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D22879-A287-45F8-9182-26D257146ADF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB8DA543-376D-44A5-8BB0-6FE6614A6F0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>usuario</t>
   </si>
@@ -72,15 +72,6 @@
     <t>12M</t>
   </si>
   <si>
-    <t>FAILED</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>24 abr. 2023, 17:05:20</t>
-  </si>
-  <si>
     <t>AAACT231141DHV7H8</t>
   </si>
   <si>
@@ -88,13 +79,18 @@
   </si>
   <si>
     <t>24 abr. 2023, 17:35:52</t>
+  </si>
+  <si>
+    <t>cuenta deposito</t>
+  </si>
+  <si>
+    <t>1010374746</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -421,23 +417,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.90625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.08984375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.36328125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="12.26953125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="10.7265625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="18.7265625" collapsed="true"/>
+    <col min="1" max="1" width="13.90625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.36328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="5.26953125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="18.7265625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -456,17 +453,20 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -485,14 +485,17 @@
       <c r="F2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/entregable1/AltaDPF.xlsx
+++ b/src/Excel/entregable1/AltaDPF.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB8DA543-376D-44A5-8BB0-6FE6614A6F0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B15913-0F6E-44FD-A067-82BF4670502E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>usuario</t>
   </si>
@@ -63,34 +63,38 @@
     <t>Fecha</t>
   </si>
   <si>
-    <t>1287257</t>
-  </si>
-  <si>
     <t>7000</t>
   </si>
   <si>
     <t>12M</t>
   </si>
   <si>
-    <t>AAACT231141DHV7H8</t>
-  </si>
-  <si>
-    <t>PASSED</t>
-  </si>
-  <si>
-    <t>24 abr. 2023, 17:35:52</t>
-  </si>
-  <si>
     <t>cuenta deposito</t>
   </si>
   <si>
-    <t>1010374746</t>
+    <t>FAILED</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>18 may. 2023, 15:43:11</t>
+  </si>
+  <si>
+    <t>1122987</t>
+  </si>
+  <si>
+    <t>1009715157</t>
+  </si>
+  <si>
+    <t>1010816943</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -417,21 +421,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.90625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.36328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="5.26953125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.453125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="18.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.90625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.08984375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.36328125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="5.26953125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="14.1796875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="19.453125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="18.7265625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
@@ -454,7 +458,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>9</v>
@@ -474,28 +478,31 @@
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
         <v>16</v>
-      </c>
-      <c r="I2" t="s">
-        <v>15</v>
       </c>
       <c r="J2" t="s">
         <v>17</v>
+      </c>
+      <c r="K2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/entregable1/AltaDPF.xlsx
+++ b/src/Excel/entregable1/AltaDPF.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B15913-0F6E-44FD-A067-82BF4670502E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22019DCC-B526-48F4-98B5-5E8AB8DFFEDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>usuario</t>
   </si>
@@ -88,13 +88,15 @@
   </si>
   <si>
     <t>1010816943</t>
+  </si>
+  <si>
+    <t>Cuenta</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -424,21 +426,22 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.90625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.08984375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.36328125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="5.26953125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="14.1796875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="19.453125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="18.7265625" collapsed="true"/>
+    <col min="1" max="1" width="13.90625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.36328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="5.26953125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="19.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="19.90625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="10.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -469,8 +472,11 @@
       <c r="J1" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="K1" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>

--- a/src/Excel/entregable1/AltaDPF.xlsx
+++ b/src/Excel/entregable1/AltaDPF.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22019DCC-B526-48F4-98B5-5E8AB8DFFEDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB9F392D-5363-456F-B441-FE33D34732DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>usuario</t>
   </si>
@@ -33,9 +33,6 @@
     <t>contraseña</t>
   </si>
   <si>
-    <t>documento</t>
-  </si>
-  <si>
     <t>ejecutivo</t>
   </si>
   <si>
@@ -91,12 +88,22 @@
   </si>
   <si>
     <t>Cuenta</t>
+  </si>
+  <si>
+    <t>CodCliente</t>
+  </si>
+  <si>
+    <t>1010825543</t>
+  </si>
+  <si>
+    <t>1010825551</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -426,19 +433,19 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.90625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.36328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="5.26953125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="19.453125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="19.90625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.90625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.08984375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.36328125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="5.26953125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="14.1796875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="19.453125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="19.90625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="10.81640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
@@ -449,66 +456,66 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="G1" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="K1" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
         <v>15</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>16</v>
       </c>
-      <c r="J2" t="s">
-        <v>17</v>
-      </c>
       <c r="K2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/entregable1/AltaDPF.xlsx
+++ b/src/Excel/entregable1/AltaDPF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB9F392D-5363-456F-B441-FE33D34732DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD43864-7B9D-4F72-936C-7E1410280520}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,9 +42,6 @@
     <t>plazo</t>
   </si>
   <si>
-    <t>SCISNEROSSPAS</t>
-  </si>
-  <si>
     <t>123456</t>
   </si>
   <si>
@@ -60,43 +57,46 @@
     <t>Fecha</t>
   </si>
   <si>
-    <t>7000</t>
-  </si>
-  <si>
     <t>12M</t>
   </si>
   <si>
-    <t>cuenta deposito</t>
-  </si>
-  <si>
-    <t>FAILED</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>18 may. 2023, 15:43:11</t>
-  </si>
-  <si>
-    <t>1122987</t>
-  </si>
-  <si>
-    <t>1009715157</t>
-  </si>
-  <si>
-    <t>1010816943</t>
-  </si>
-  <si>
     <t>Cuenta</t>
   </si>
   <si>
     <t>CodCliente</t>
   </si>
   <si>
-    <t>1010825543</t>
-  </si>
-  <si>
-    <t>1010825551</t>
+    <t>cuenta debito</t>
+  </si>
+  <si>
+    <t>fecha</t>
+  </si>
+  <si>
+    <t>R_RENEWAL +</t>
+  </si>
+  <si>
+    <t>dmoralesr</t>
+  </si>
+  <si>
+    <t>4862917</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>1010506979</t>
+  </si>
+  <si>
+    <t>1010825578</t>
+  </si>
+  <si>
+    <t>AAACT231773NFXKK3</t>
+  </si>
+  <si>
+    <t>PASSED</t>
+  </si>
+  <si>
+    <t>26 jun. 2023, 18:00:45</t>
   </si>
 </sst>
 </file>
@@ -430,25 +430,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.90625" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.36328125" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="10.08984375" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="10.36328125" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="5.26953125" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="14.1796875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="19.453125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="19.90625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="10.81640625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.54296875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="19.453125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="19.90625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="10.81640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -456,7 +457,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -470,49 +471,52 @@
       <c r="G1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>20</v>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
+        <v>19</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K2" t="s">
         <v>23</v>

--- a/src/Excel/entregable1/AltaDPF.xlsx
+++ b/src/Excel/entregable1/AltaDPF.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD43864-7B9D-4F72-936C-7E1410280520}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F58ED7-DF6F-477A-8921-42BFC2AABBDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -87,23 +87,22 @@
     <t>1010506979</t>
   </si>
   <si>
-    <t>1010825578</t>
-  </si>
-  <si>
-    <t>AAACT231773NFXKK3</t>
-  </si>
-  <si>
-    <t>PASSED</t>
-  </si>
-  <si>
-    <t>26 jun. 2023, 18:00:45</t>
+    <t>metodo</t>
+  </si>
+  <si>
+    <t>frecuencia</t>
+  </si>
+  <si>
+    <t>e0Y e1M e0W o3D e0F</t>
+  </si>
+  <si>
+    <t>PAY</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -430,26 +429,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="9.36328125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.08984375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.36328125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="5.26953125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="14.1796875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="12.54296875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="19.453125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="19.90625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="10.81640625" collapsed="true"/>
+    <col min="1" max="1" width="9.36328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.36328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="5.26953125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="19.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="19.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="19.90625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="10.81640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -474,20 +475,26 @@
       <c r="H1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -512,14 +519,11 @@
       <c r="H2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="J2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/entregable1/AltaDPF.xlsx
+++ b/src/Excel/entregable1/AltaDPF.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F58ED7-DF6F-477A-8921-42BFC2AABBDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD2BEBE7-8FBB-4808-A6B2-08126A8A83EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
   <si>
     <t>usuario</t>
   </si>
@@ -97,12 +97,25 @@
   </si>
   <si>
     <t>PAY</t>
+  </si>
+  <si>
+    <t>FAILED</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>9 ago. 2023, 09:02:42</t>
+  </si>
+  <si>
+    <t>1010830687</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -429,25 +442,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.36328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.36328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="5.26953125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.54296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="19.54296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="19.453125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="19.90625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="10.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.36328125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.08984375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.36328125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="5.26953125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="14.1796875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.54296875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="10.08984375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="19.54296875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="19.453125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="19.90625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="10.81640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
@@ -523,6 +536,50 @@
         <v>23</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>22</v>
       </c>
     </row>
